--- a/src/main/resources/static/templatefiles/核销明细(分摊出账)导入模板.xlsx
+++ b/src/main/resources/static/templatefiles/核销明细(分摊出账)导入模板.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="18015" tabRatio="408"/>
+    <workbookView windowWidth="28800" windowHeight="12690" tabRatio="408"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$135</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="195">
   <si>
     <t>区域</t>
   </si>
@@ -37,6 +37,9 @@
     <t>站址编码</t>
   </si>
   <si>
+    <t>站点名称</t>
+  </si>
+  <si>
     <t>客户</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
   </si>
   <si>
     <t>500116500000000104</t>
+  </si>
+  <si>
+    <t>xxxx</t>
   </si>
   <si>
     <t>电信</t>
@@ -603,12 +609,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -631,7 +637,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,7 +658,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,27 +691,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -712,50 +704,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -783,6 +731,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -792,15 +747,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -819,7 +825,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,13 +867,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,13 +885,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,133 +999,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,15 +1045,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1057,26 +1054,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,16 +1094,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1118,199 +1124,199 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
@@ -1325,14 +1331,14 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1341,29 +1347,29 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1372,7 +1378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1404,9 +1410,9 @@
     <cellStyle name="常规 35" xfId="16"/>
     <cellStyle name="百分比" xfId="17" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="18" builtinId="9"/>
-    <cellStyle name="注释" xfId="19" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="20"/>
-    <cellStyle name="百分比 2" xfId="21"/>
+    <cellStyle name="百分比 2" xfId="19"/>
+    <cellStyle name="注释" xfId="20" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="21"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="22" builtinId="36"/>
     <cellStyle name="标题 4" xfId="23" builtinId="19"/>
     <cellStyle name="警告文本" xfId="24" builtinId="11"/>
@@ -1461,8 +1467,8 @@
     <cellStyle name="常规 10 2 10 2 2 2" xfId="73"/>
     <cellStyle name="常规 135 2" xfId="74"/>
     <cellStyle name="常规 12" xfId="75"/>
-    <cellStyle name="常规 10" xfId="76"/>
-    <cellStyle name="常规_Sheet1 13" xfId="77"/>
+    <cellStyle name="常规_Sheet1 13" xfId="76"/>
+    <cellStyle name="常规 10" xfId="77"/>
     <cellStyle name="常规 11 2" xfId="78"/>
     <cellStyle name="常规 101" xfId="79"/>
     <cellStyle name="常规 102" xfId="80"/>
@@ -1778,21 +1784,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H135"/>
+  <sheetPr/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A136" sqref="$A136:$XFD69952"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="5" max="5" width="9.25"/>
-    <col min="8" max="8" width="9.25"/>
+    <col min="9" max="9" width="9.25"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:8">
+    <row r="1" ht="16.5" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1817,3494 +1823,3899 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3">
         <v>43921</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2">
         <v>21.94</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3">
         <v>43903</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2">
         <v>22.35</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3">
         <v>43903</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="2">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2">
         <v>553.28</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3">
         <v>43949</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2">
+        <v>666.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="2">
-        <v>666.12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3">
         <v>43949</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="2">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2">
         <v>28.58</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3">
         <v>43915</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="2">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2">
         <v>29.22</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3">
         <v>43915</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="2">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="2">
         <v>720.86</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" s="3">
         <v>44012</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="2">
+        <v>14</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2">
         <v>724.33</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="3">
         <v>44012</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="2">
+        <v>14</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="2">
         <v>30.96</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" s="3">
         <v>44012</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="2">
+        <v>14</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="2">
         <v>30.96</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" s="3">
         <v>44012</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="2">
+        <v>14</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="2">
         <v>724.33</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" s="3">
         <v>43978</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="2">
+        <v>148.46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="2">
-        <v>148.46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" s="3">
         <v>43978</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="2">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="2">
-        <v>6.35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" s="3">
         <v>43978</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="2">
+        <v>386.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="2">
-        <v>386.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" s="3">
         <v>43978</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="2">
+        <v>14</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="2">
         <v>16.51</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" s="3">
         <v>43903</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="2">
+        <v>14</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="2">
         <v>19.03</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" s="3">
         <v>43903</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="2">
+        <v>14</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="2">
         <v>471.26</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" s="3">
         <v>43921</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="2">
+        <v>14</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="2">
         <v>537.41</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E20" s="3">
         <v>43921</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="2">
+        <v>22.42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="2">
-        <v>22.42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E21" s="3">
         <v>43978</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="2">
+        <v>14</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="2">
         <v>1530.91</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E22" s="3">
         <v>43978</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="2">
+        <v>14</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="2">
         <v>65.44</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E23" s="3">
         <v>43903</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="2">
+        <v>14</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="2">
         <v>64.47</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E24" s="3">
         <v>43903</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="2">
+        <v>14</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="2">
         <v>1596.01</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E25" s="3">
         <v>43921</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="2">
+        <v>14</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="2">
         <v>1518.74</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E26" s="3">
         <v>43921</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="2">
+        <v>14</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="2">
         <v>63.36</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E27" s="3">
         <v>43978</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="2">
+        <v>14</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="2">
         <v>822.85</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E28" s="3">
         <v>43978</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="2">
+        <v>14</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="2">
         <v>35.17</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E29" s="3">
         <v>43978</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="2">
+        <v>14</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="2">
         <v>433.21</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E30" s="3">
         <v>43978</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="2">
+        <v>14</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="2">
         <v>18.52</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E31" s="3">
         <v>43903</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="2">
+        <v>14</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="2">
         <v>18.6</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E32" s="3">
         <v>43903</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="2">
+        <v>14</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="2">
         <v>460.43</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:9">
       <c r="A33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E33" s="3">
         <v>43921</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="2">
+        <v>14</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="2">
         <v>444.49</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E34" s="3">
         <v>43921</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="2">
+        <v>14</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="2">
         <v>18.54</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:9">
       <c r="A35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E35" s="3">
         <v>43921</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="2">
+        <v>14</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="2">
         <v>844.28</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:9">
       <c r="A36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E36" s="3">
         <v>43921</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="2">
+        <v>14</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="2">
         <v>35.22</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:9">
       <c r="A37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E37" s="3">
         <v>43903</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="2">
+        <v>14</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="2">
         <v>35.32</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:9">
       <c r="A38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E38" s="3">
         <v>43903</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="2">
+        <v>14</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="2">
         <v>874.54</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:9">
       <c r="A39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E39" s="3">
         <v>43978</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="2">
+        <v>14</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="2">
         <v>428.28</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:9">
       <c r="A40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E40" s="3">
         <v>43978</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="2">
+        <v>14</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="2">
         <v>18.31</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:9">
       <c r="A41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E41" s="3">
         <v>43978</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" s="2">
+        <v>14</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="2">
         <v>644.53</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:9">
       <c r="A42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E42" s="3">
         <v>43978</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" s="2">
+        <v>14</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="2">
         <v>27.55</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:9">
       <c r="A43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E43" s="3">
         <v>43978</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H43" s="2">
+        <v>14</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" s="2">
         <v>282.19</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:9">
       <c r="A44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E44" s="3">
         <v>43978</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H44" s="2">
+        <v>14</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I44" s="2">
         <v>12.06</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:9">
       <c r="A45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E45" s="3">
         <v>43903</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="2">
+        <v>14</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="2">
         <v>26.56</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:9">
       <c r="A46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E46" s="3">
         <v>43903</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="2">
+        <v>14</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="2">
         <v>657.4</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:9">
       <c r="A47" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E47" s="3">
         <v>43943</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I47" s="2">
+        <v>70.55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H47" s="2">
-        <v>70.55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E48" s="3">
         <v>43943</v>
       </c>
       <c r="F48" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I48" s="2">
+        <v>148.28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H48" s="2">
-        <v>148.28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E49" s="3">
         <v>43943</v>
       </c>
       <c r="F49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I49" s="2">
+        <v>228.81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H49" s="2">
-        <v>228.81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C50" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E50" s="3">
         <v>43943</v>
       </c>
       <c r="F50" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I50" s="2">
+        <v>159.51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H50" s="2">
-        <v>159.51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E51" s="3">
         <v>43943</v>
       </c>
       <c r="F51" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I51" s="2">
+        <v>214.12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H51" s="2">
-        <v>214.12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C52" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E52" s="3">
         <v>43943</v>
       </c>
       <c r="F52" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="2">
+        <v>118.67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="2">
-        <v>118.67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E53" s="3">
         <v>43943</v>
       </c>
       <c r="F53" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="2">
+        <v>246.49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" s="2">
-        <v>246.49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E54" s="3">
         <v>43943</v>
       </c>
       <c r="F54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="2">
+        <v>384.95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" s="2">
-        <v>384.95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E55" s="3">
         <v>43943</v>
       </c>
       <c r="F55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="2">
+        <v>286.16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="2">
-        <v>286.16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E56" s="3">
         <v>43943</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" s="2">
+        <v>14</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="2">
         <v>360.26</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:9">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E57" s="3">
         <v>44012</v>
       </c>
       <c r="F57" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I57" s="2">
+        <v>3526.29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H57" s="2">
-        <v>3526.29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E58" s="3">
         <v>44012</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H58" s="2">
+        <v>14</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I58" s="2">
         <v>150.73</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:9">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E59" s="3">
         <v>43980</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H59" s="2">
+        <v>14</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I59" s="2">
         <v>4243.23</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:9">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E60" s="3">
         <v>43980</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H60" s="2">
+        <v>14</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I60" s="2">
         <v>64.09</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:9">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E61" s="3">
         <v>43951</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H61" s="2">
+        <v>14</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I61" s="2">
         <v>2708.63</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:9">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E62" s="3">
         <v>43909</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H62" s="2">
+        <v>14</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I62" s="2">
         <v>123.49</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:9">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E63" s="3">
         <v>43909</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H63" s="2">
+        <v>14</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I63" s="2">
         <v>3057.38</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:9">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E64" s="3">
         <v>43922</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H64" s="2">
+        <v>14</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I64" s="2">
         <v>3899.7</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:9">
       <c r="A65" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E65" s="3">
         <v>43915</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H65" s="2">
+        <v>14</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I65" s="2">
         <v>3014.17</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:9">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E66" s="3">
         <v>43915</v>
       </c>
       <c r="F66" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I66" s="2">
+        <v>121.73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H66" s="2">
-        <v>121.73</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E67" s="3">
         <v>44012</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H67" s="2">
+        <v>14</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I67" s="2">
         <v>1038.82</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:9">
       <c r="A68" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E68" s="3">
         <v>44012</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H68" s="2">
+        <v>14</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I68" s="2">
         <v>44.4</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:9">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E69" s="3">
         <v>43980</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H69" s="2">
+        <v>14</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I69" s="2">
         <v>1021.99</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:9">
       <c r="A70" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E70" s="3">
         <v>43980</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H70" s="2">
+        <v>14</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I70" s="2">
         <v>43.69</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:9">
       <c r="A71" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E71" s="3">
         <v>43951</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H71" s="2">
+        <v>14</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I71" s="2">
         <v>808.42</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:9">
       <c r="A72" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E72" s="3">
         <v>43922</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H72" s="2">
+        <v>14</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I72" s="2">
         <v>1518.26</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:9">
       <c r="A73" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E73" s="3">
         <v>43909</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H73" s="2">
+        <v>14</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I73" s="2">
         <v>44.61</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:9">
       <c r="A74" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E74" s="3">
         <v>43909</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H74" s="2">
+        <v>14</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I74" s="2">
         <v>1104.43</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:9">
       <c r="A75" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E75" s="3">
         <v>43915</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H75" s="2">
+        <v>14</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I75" s="2">
         <v>1097.44</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:9">
       <c r="A76" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E76" s="3">
         <v>43915</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H76" s="2">
+        <v>14</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I76" s="2">
         <v>44.33</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:9">
       <c r="A77" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E77" s="3">
         <v>44012</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H77" s="2">
+        <v>14</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I77" s="2">
         <v>16.5</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:9">
       <c r="A78" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E78" s="3">
         <v>44012</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H78" s="2">
+        <v>14</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I78" s="2">
         <v>385.88</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:9">
       <c r="A79" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E79" s="3">
         <v>43915</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H79" s="2">
+        <v>14</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I79" s="2">
         <v>10.64</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:9">
       <c r="A80" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E80" s="3">
         <v>43909</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H80" s="2">
+        <v>14</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I80" s="2">
         <v>16.84</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:9">
       <c r="A81" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E81" s="3">
         <v>43909</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" s="2">
+        <v>14</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I81" s="2">
         <v>416.78</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:9">
       <c r="A82" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E82" s="3">
         <v>43909</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H82" s="2">
+        <v>14</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I82" s="2">
         <v>284.31</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:9">
       <c r="A83" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E83" s="3">
         <v>43909</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H83" s="2">
+        <v>14</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I83" s="2">
         <v>11.48</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:9">
       <c r="A84" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E84" s="3">
         <v>44011</v>
       </c>
       <c r="F84" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I84" s="2">
+        <v>651.74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H84" s="2">
-        <v>651.74</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E85" s="3">
         <v>44011</v>
       </c>
       <c r="F85" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I85" s="2">
+        <v>653.08</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="2">
-        <v>653.08</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C86" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E86" s="3">
         <v>44011</v>
       </c>
       <c r="F86" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I86" s="2">
+        <v>832.07</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H86" s="2">
-        <v>832.07</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C87" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E87" s="3">
         <v>44011</v>
       </c>
       <c r="F87" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I87" s="2">
+        <v>27.85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G87" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H87" s="2">
-        <v>27.85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E88" s="3">
         <v>44011</v>
       </c>
       <c r="F88" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I88" s="2">
+        <v>27.91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G88" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" s="2">
-        <v>27.91</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C89" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E89" s="3">
         <v>44011</v>
       </c>
       <c r="F89" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I89" s="2">
+        <v>35.57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G89" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H89" s="2">
-        <v>35.57</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C90" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E90" s="3">
         <v>44011</v>
       </c>
       <c r="F90" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I90" s="2">
+        <v>651.74</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H90" s="2">
-        <v>651.74</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C91" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E91" s="3">
         <v>44011</v>
       </c>
       <c r="F91" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I91" s="2">
+        <v>653.08</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G91" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" s="2">
-        <v>653.08</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C92" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E92" s="3">
         <v>44011</v>
       </c>
       <c r="F92" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I92" s="2">
+        <v>832.07</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G92" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H92" s="2">
-        <v>832.07</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C93" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E93" s="3">
         <v>44011</v>
       </c>
       <c r="F93" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I93" s="2">
+        <v>27.85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H93" s="2">
-        <v>27.85</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E94" s="3">
         <v>44011</v>
       </c>
       <c r="F94" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I94" s="2">
+        <v>27.91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" s="2">
-        <v>27.91</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C95" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E95" s="3">
         <v>44011</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H95" s="2">
+        <v>14</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I95" s="2">
         <v>35.57</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:9">
       <c r="A96" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E96" s="3">
         <v>43951</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" s="2">
+        <v>14</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I96" s="2">
         <v>18.68</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:9">
       <c r="A97" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E97" s="3">
         <v>43951</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" s="2">
+        <v>14</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I97" s="2">
         <v>431.14</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:9">
       <c r="A98" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E98" s="3">
         <v>43951</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H98" s="2">
+        <v>14</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I98" s="2">
         <v>22.05</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:9">
       <c r="A99" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E99" s="3">
         <v>43951</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H99" s="2">
+        <v>14</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I99" s="2">
         <v>508.88</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:9">
       <c r="A100" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E100" s="3">
         <v>43951</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H100" s="2">
+        <v>14</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I100" s="2">
         <v>24.41</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:9">
       <c r="A101" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E101" s="3">
         <v>43951</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H101" s="2">
+        <v>14</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I101" s="2">
         <v>563.67</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:9">
       <c r="A102" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E102" s="3">
         <v>43915</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H102" s="2">
+        <v>14</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I102" s="2">
         <v>22.77</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:9">
       <c r="A103" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E103" s="3">
         <v>43915</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H103" s="2">
+        <v>14</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I103" s="2">
         <v>561.86</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:9">
       <c r="A104" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E104" s="3">
         <v>43915</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H104" s="2">
+        <v>14</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I104" s="2">
         <v>19.29</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:9">
       <c r="A105" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E105" s="3">
         <v>43915</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H105" s="2">
+        <v>14</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I105" s="2">
         <v>476.02</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:9">
       <c r="A106" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E106" s="3">
         <v>43915</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H106" s="2">
+        <v>14</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I106" s="2">
         <v>622.33</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:9">
       <c r="A107" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E107" s="3">
         <v>43915</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H107" s="2">
+        <v>14</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I107" s="2">
         <v>25.23</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:9">
       <c r="A108" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E108" s="3">
         <v>43951</v>
       </c>
       <c r="F108" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I108" s="2">
+        <v>230.25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G108" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H108" s="2">
-        <v>230.25</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="C109" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E109" s="3">
         <v>43951</v>
       </c>
       <c r="F109" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I109" s="2">
+        <v>9.89</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G109" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H109" s="2">
-        <v>9.89</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E110" s="3">
         <v>43951</v>
       </c>
       <c r="F110" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I110" s="2">
+        <v>489.29</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G110" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H110" s="2">
-        <v>489.29</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="C111" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E111" s="3">
         <v>43951</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H111" s="2">
+        <v>14</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I111" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:9">
       <c r="A112" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E112" s="3">
         <v>43915</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H112" s="2">
+        <v>14</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I112" s="2">
         <v>23.79</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:9">
       <c r="A113" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E113" s="3">
         <v>43915</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H113" s="2">
+        <v>14</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I113" s="2">
         <v>589.07</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:9">
       <c r="A114" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E114" s="3">
         <v>43915</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H114" s="2">
+        <v>14</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I114" s="2">
         <v>11.2</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:9">
       <c r="A115" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E115" s="3">
         <v>43915</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H115" s="2">
+        <v>14</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I115" s="2">
         <v>277.21</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:9">
       <c r="A116" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E116" s="3">
         <v>43977</v>
       </c>
       <c r="F116" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I116" s="2">
+        <v>468.09</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G116" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H116" s="2">
-        <v>468.09</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E117" s="3">
         <v>43977</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H117" s="2">
+        <v>14</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I117" s="2">
         <v>20.01</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:9">
       <c r="A118" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E118" s="3">
         <v>43921</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H118" s="2">
+        <v>14</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I118" s="2">
         <v>18.9</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:9">
       <c r="A119" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E119" s="3">
         <v>43921</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H119" s="2">
+        <v>14</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I119" s="2">
         <v>453.97</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:9">
       <c r="A120" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E120" s="3">
         <v>43980</v>
       </c>
       <c r="F120" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I120" s="2">
+        <v>438.02</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G120" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H120" s="2">
-        <v>438.02</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="C121" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E121" s="3">
         <v>43980</v>
       </c>
       <c r="F121" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I121" s="2">
+        <v>18.72</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G121" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H121" s="2">
-        <v>18.72</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="C122" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E122" s="3">
         <v>43980</v>
       </c>
       <c r="F122" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I122" s="2">
+        <v>864.82</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G122" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H122" s="2">
-        <v>864.82</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E123" s="3">
         <v>43980</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H123" s="2">
+        <v>14</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I123" s="2">
         <v>36.96</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:9">
       <c r="A124" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E124" s="3">
         <v>43903</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H124" s="2">
+        <v>14</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I124" s="2">
         <v>883.57</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:9">
       <c r="A125" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E125" s="3">
         <v>43903</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H125" s="2">
+        <v>14</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I125" s="2">
         <v>35.69</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:9">
       <c r="A126" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E126" s="3">
         <v>43921</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H126" s="2">
+        <v>14</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I126" s="2">
         <v>881.87</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:9">
       <c r="A127" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E127" s="3">
         <v>43921</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H127" s="2">
+        <v>14</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I127" s="2">
         <v>36.66</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:9">
       <c r="A128" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E128" s="3">
         <v>43921</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H128" s="2">
+        <v>14</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I128" s="2">
         <v>446.66</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:9">
       <c r="A129" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E129" s="3">
         <v>43921</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H129" s="2">
+        <v>14</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I129" s="2">
         <v>18.57</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:9">
       <c r="A130" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E130" s="3">
         <v>43903</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H130" s="2">
+        <v>14</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I130" s="2">
         <v>447.6</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:9">
       <c r="A131" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E131" s="3">
         <v>43903</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H131" s="2">
+        <v>14</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I131" s="2">
         <v>18.08</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:9">
       <c r="A132" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E132" s="3">
         <v>44012</v>
       </c>
       <c r="F132" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I132" s="2">
+        <v>1413.89</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G132" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H132" s="2">
-        <v>1413.89</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="C133" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E133" s="3">
         <v>44012</v>
       </c>
       <c r="F133" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I133" s="2">
+        <v>60.43</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G133" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H133" s="2">
-        <v>60.43</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="C134" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E134" s="3">
         <v>44012</v>
       </c>
       <c r="F134" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I134" s="2">
+        <v>1413.89</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G134" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H134" s="2">
-        <v>1413.89</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="C135" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E135" s="3">
         <v>44012</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H135" s="2">
+        <v>14</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I135" s="2">
         <v>60.43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H135">
-    <sortState ref="A2:H135">
+  <autoFilter ref="A1:I135">
+    <sortState ref="A1:I135">
       <sortCondition ref="F1"/>
     </sortState>
     <extLst/>

--- a/src/main/resources/static/templatefiles/核销明细(分摊出账)导入模板.xlsx
+++ b/src/main/resources/static/templatefiles/核销明细(分摊出账)导入模板.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" tabRatio="408"/>
+    <workbookView windowWidth="28800" windowHeight="12615" tabRatio="408"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$135</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="193">
   <si>
     <t>区域</t>
   </si>
@@ -37,9 +37,6 @@
     <t>站址编码</t>
   </si>
   <si>
-    <t>站点名称</t>
-  </si>
-  <si>
     <t>客户</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
   </si>
   <si>
     <t>500116500000000104</t>
-  </si>
-  <si>
-    <t>xxxx</t>
   </si>
   <si>
     <t>电信</t>
@@ -609,10 +603,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
   </numFmts>
@@ -636,6 +630,12 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -644,48 +644,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="仿宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,11 +659,38 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -715,17 +701,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,36 +725,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -777,7 +732,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -792,10 +747,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -803,6 +791,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -825,7 +819,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,13 +903,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,151 +993,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,6 +1010,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1043,17 +1048,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1065,15 +1059,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1093,6 +1078,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1107,15 +1110,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1124,194 +1118,194 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1334,10 +1328,10 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1347,7 +1341,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
@@ -1360,10 +1354,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
@@ -1410,9 +1404,9 @@
     <cellStyle name="常规 35" xfId="16"/>
     <cellStyle name="百分比" xfId="17" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="18" builtinId="9"/>
-    <cellStyle name="百分比 2" xfId="19"/>
-    <cellStyle name="注释" xfId="20" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="21"/>
+    <cellStyle name="注释" xfId="19" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="20"/>
+    <cellStyle name="百分比 2" xfId="21"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="22" builtinId="36"/>
     <cellStyle name="标题 4" xfId="23" builtinId="19"/>
     <cellStyle name="警告文本" xfId="24" builtinId="11"/>
@@ -1467,8 +1461,8 @@
     <cellStyle name="常规 10 2 10 2 2 2" xfId="73"/>
     <cellStyle name="常规 135 2" xfId="74"/>
     <cellStyle name="常规 12" xfId="75"/>
-    <cellStyle name="常规_Sheet1 13" xfId="76"/>
-    <cellStyle name="常规 10" xfId="77"/>
+    <cellStyle name="常规 10" xfId="76"/>
+    <cellStyle name="常规_Sheet1 13" xfId="77"/>
     <cellStyle name="常规 11 2" xfId="78"/>
     <cellStyle name="常规 101" xfId="79"/>
     <cellStyle name="常规 102" xfId="80"/>
@@ -1785,20 +1779,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="5" max="5" width="9.25"/>
-    <col min="9" max="9" width="9.25"/>
+    <col min="8" max="8" width="9.25"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:9">
+    <row r="1" ht="16.5" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1823,3899 +1817,3494 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3">
         <v>43921</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2">
+        <v>21.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2">
-        <v>21.94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3">
         <v>43903</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2">
+        <v>22.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2">
-        <v>22.35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3">
         <v>43903</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="H4" s="2">
         <v>553.28</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3">
         <v>43949</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2">
+        <v>666.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="2">
-        <v>666.12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3">
         <v>43949</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2">
+        <v>28.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="2">
-        <v>28.58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="3">
         <v>43915</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2">
+        <v>29.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="2">
-        <v>29.22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="3">
         <v>43915</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="2">
+        <v>20</v>
+      </c>
+      <c r="H8" s="2">
         <v>720.86</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="3">
         <v>44012</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="2">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2">
         <v>724.33</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="3">
         <v>44012</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="2">
+        <v>20</v>
+      </c>
+      <c r="H10" s="2">
         <v>30.96</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3">
         <v>44012</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="2">
+        <v>20</v>
+      </c>
+      <c r="H11" s="2">
         <v>30.96</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3">
         <v>44012</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="2">
+        <v>20</v>
+      </c>
+      <c r="H12" s="2">
         <v>724.33</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="3">
         <v>43978</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="2">
+        <v>13</v>
+      </c>
+      <c r="H13" s="2">
         <v>148.46</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="3">
         <v>43978</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="2">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="2">
-        <v>6.35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="3">
         <v>43978</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="2">
+        <v>20</v>
+      </c>
+      <c r="H15" s="2">
         <v>386.25</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="3">
         <v>43978</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="2">
+        <v>16.51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="2">
-        <v>16.51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="3">
         <v>43903</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="2">
+        <v>19.03</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="2">
-        <v>19.03</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="3">
         <v>43903</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="2">
+        <v>20</v>
+      </c>
+      <c r="H18" s="2">
         <v>471.26</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="3">
         <v>43921</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="2">
+        <v>20</v>
+      </c>
+      <c r="H19" s="2">
         <v>537.41</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="3">
         <v>43921</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="2">
+        <v>20</v>
+      </c>
+      <c r="H20" s="2">
         <v>22.42</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="3">
         <v>43978</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="2">
+        <v>20</v>
+      </c>
+      <c r="H21" s="2">
         <v>1530.91</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="3">
         <v>43978</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="2">
+        <v>65.44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="2">
-        <v>65.44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="3">
         <v>43903</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="2">
+        <v>64.47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="2">
-        <v>64.47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="3">
         <v>43903</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="2">
+        <v>20</v>
+      </c>
+      <c r="H24" s="2">
         <v>1596.01</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" s="3">
         <v>43921</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="2">
+        <v>20</v>
+      </c>
+      <c r="H25" s="2">
         <v>1518.74</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" s="3">
         <v>43921</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="2">
+        <v>20</v>
+      </c>
+      <c r="H26" s="2">
         <v>63.36</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" s="3">
         <v>43978</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="2">
+        <v>13</v>
+      </c>
+      <c r="H27" s="2">
         <v>822.85</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" s="3">
         <v>43978</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="2">
+        <v>35.17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="2">
-        <v>35.17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" s="3">
         <v>43978</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="2">
+        <v>20</v>
+      </c>
+      <c r="H29" s="2">
         <v>433.21</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" s="3">
         <v>43978</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="2">
+        <v>18.52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="2">
-        <v>18.52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" s="3">
         <v>43903</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="2">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="2">
-        <v>18.6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32" s="3">
         <v>43903</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" s="2">
+        <v>20</v>
+      </c>
+      <c r="H32" s="2">
         <v>460.43</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33" s="3">
         <v>43921</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" s="2">
+        <v>20</v>
+      </c>
+      <c r="H33" s="2">
         <v>444.49</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34" s="3">
         <v>43921</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" s="2">
+        <v>20</v>
+      </c>
+      <c r="H34" s="2">
         <v>18.54</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35" s="3">
         <v>43921</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="2">
+        <v>13</v>
+      </c>
+      <c r="H35" s="2">
         <v>844.28</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36" s="3">
         <v>43921</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="2">
+        <v>35.22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="2">
-        <v>35.22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C37" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E37" s="3">
         <v>43903</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="2">
+        <v>35.32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="2">
-        <v>35.32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38" s="3">
         <v>43903</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="2">
+        <v>13</v>
+      </c>
+      <c r="H38" s="2">
         <v>874.54</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E39" s="3">
         <v>43978</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="2">
+        <v>13</v>
+      </c>
+      <c r="H39" s="2">
         <v>428.28</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" s="3">
         <v>43978</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="2">
+        <v>18.31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" s="2">
-        <v>18.31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E41" s="3">
         <v>43978</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I41" s="2">
+        <v>20</v>
+      </c>
+      <c r="H41" s="2">
         <v>644.53</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E42" s="3">
         <v>43978</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I42" s="2">
+        <v>20</v>
+      </c>
+      <c r="H42" s="2">
         <v>27.55</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43" s="3">
         <v>43978</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I43" s="2">
+        <v>67</v>
+      </c>
+      <c r="H43" s="2">
         <v>282.19</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E44" s="3">
         <v>43978</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H44" s="2">
+        <v>12.06</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I44" s="2">
-        <v>12.06</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E45" s="3">
         <v>43903</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="2">
+        <v>26.56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I45" s="2">
-        <v>26.56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E46" s="3">
         <v>43903</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I46" s="2">
+        <v>20</v>
+      </c>
+      <c r="H46" s="2">
         <v>657.4</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E47" s="3">
         <v>43943</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I47" s="2">
+        <v>67</v>
+      </c>
+      <c r="H47" s="2">
         <v>70.55</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E48" s="3">
         <v>43943</v>
       </c>
       <c r="F48" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H48" s="2">
+        <v>148.28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I48" s="2">
-        <v>148.28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="D49" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E49" s="3">
         <v>43943</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I49" s="2">
+        <v>67</v>
+      </c>
+      <c r="H49" s="2">
         <v>228.81</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E50" s="3">
         <v>43943</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I50" s="2">
+        <v>67</v>
+      </c>
+      <c r="H50" s="2">
         <v>159.51</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E51" s="3">
         <v>43943</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I51" s="2">
+        <v>67</v>
+      </c>
+      <c r="H51" s="2">
         <v>214.12</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E52" s="3">
         <v>43943</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I52" s="2">
+        <v>13</v>
+      </c>
+      <c r="H52" s="2">
         <v>118.67</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E53" s="3">
         <v>43943</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I53" s="2">
+        <v>13</v>
+      </c>
+      <c r="H53" s="2">
         <v>246.49</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E54" s="3">
         <v>43943</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I54" s="2">
+        <v>13</v>
+      </c>
+      <c r="H54" s="2">
         <v>384.95</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E55" s="3">
         <v>43943</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I55" s="2">
+        <v>13</v>
+      </c>
+      <c r="H55" s="2">
         <v>286.16</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E56" s="3">
         <v>43943</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I56" s="2">
+        <v>13</v>
+      </c>
+      <c r="H56" s="2">
         <v>360.26</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="D57" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E57" s="3">
         <v>44012</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I57" s="2">
+        <v>67</v>
+      </c>
+      <c r="H57" s="2">
         <v>3526.29</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E58" s="3">
         <v>44012</v>
       </c>
       <c r="F58" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H58" s="2">
+        <v>150.73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I58" s="2">
-        <v>150.73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="C59" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E59" s="3">
         <v>43980</v>
       </c>
       <c r="F59" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H59" s="2">
+        <v>4243.23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I59" s="2">
-        <v>4243.23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D60" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E60" s="3">
         <v>43980</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I60" s="2">
+        <v>67</v>
+      </c>
+      <c r="H60" s="2">
         <v>64.09</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E61" s="3">
         <v>43951</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I61" s="2">
+        <v>67</v>
+      </c>
+      <c r="H61" s="2">
         <v>2708.63</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E62" s="3">
         <v>43909</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I62" s="2">
+        <v>67</v>
+      </c>
+      <c r="H62" s="2">
         <v>123.49</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="D63" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E63" s="3">
         <v>43909</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I63" s="2">
+        <v>67</v>
+      </c>
+      <c r="H63" s="2">
         <v>3057.38</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E64" s="3">
         <v>43922</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I64" s="2">
+        <v>67</v>
+      </c>
+      <c r="H64" s="2">
         <v>3899.7</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E65" s="3">
         <v>43915</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I65" s="2">
+        <v>67</v>
+      </c>
+      <c r="H65" s="2">
         <v>3014.17</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="D66" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E66" s="3">
         <v>43915</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I66" s="2">
+        <v>67</v>
+      </c>
+      <c r="H66" s="2">
         <v>121.73</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E67" s="3">
         <v>44012</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I67" s="2">
+        <v>67</v>
+      </c>
+      <c r="H67" s="2">
         <v>1038.82</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E68" s="3">
         <v>44012</v>
       </c>
       <c r="F68" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H68" s="2">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I68" s="2">
-        <v>44.4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="D69" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E69" s="3">
         <v>43980</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I69" s="2">
+        <v>67</v>
+      </c>
+      <c r="H69" s="2">
         <v>1021.99</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E70" s="3">
         <v>43980</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I70" s="2">
+        <v>67</v>
+      </c>
+      <c r="H70" s="2">
         <v>43.69</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E71" s="3">
         <v>43951</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I71" s="2">
+        <v>67</v>
+      </c>
+      <c r="H71" s="2">
         <v>808.42</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E72" s="3">
         <v>43922</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I72" s="2">
+        <v>67</v>
+      </c>
+      <c r="H72" s="2">
         <v>1518.26</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E73" s="3">
         <v>43909</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I73" s="2">
+        <v>67</v>
+      </c>
+      <c r="H73" s="2">
         <v>44.61</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E74" s="3">
         <v>43909</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I74" s="2">
+        <v>67</v>
+      </c>
+      <c r="H74" s="2">
         <v>1104.43</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E75" s="3">
         <v>43915</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I75" s="2">
+        <v>67</v>
+      </c>
+      <c r="H75" s="2">
         <v>1097.44</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E76" s="3">
         <v>43915</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I76" s="2">
+        <v>67</v>
+      </c>
+      <c r="H76" s="2">
         <v>44.33</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E77" s="3">
         <v>44012</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I77" s="2">
+        <v>20</v>
+      </c>
+      <c r="H77" s="2">
         <v>16.5</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E78" s="3">
         <v>44012</v>
       </c>
       <c r="F78" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="2">
+        <v>385.88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I78" s="2">
-        <v>385.88</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E79" s="3">
         <v>43915</v>
       </c>
       <c r="F79" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H79" s="2">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G79" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I79" s="2">
-        <v>10.64</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="D80" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E80" s="3">
         <v>43909</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I80" s="2">
+        <v>13</v>
+      </c>
+      <c r="H80" s="2">
         <v>16.84</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="D81" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E81" s="3">
         <v>43909</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I81" s="2">
+        <v>13</v>
+      </c>
+      <c r="H81" s="2">
         <v>416.78</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E82" s="3">
         <v>43909</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I82" s="2">
+        <v>67</v>
+      </c>
+      <c r="H82" s="2">
         <v>284.31</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E83" s="3">
         <v>43909</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I83" s="2">
+        <v>67</v>
+      </c>
+      <c r="H83" s="2">
         <v>11.48</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D84" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E84" s="3">
         <v>44011</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I84" s="2">
+        <v>20</v>
+      </c>
+      <c r="H84" s="2">
         <v>651.74</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E85" s="3">
         <v>44011</v>
       </c>
       <c r="F85" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="2">
+        <v>653.08</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I85" s="2">
-        <v>653.08</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="D86" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E86" s="3">
         <v>44011</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I86" s="2">
+        <v>67</v>
+      </c>
+      <c r="H86" s="2">
         <v>832.07</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:8">
       <c r="A87" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E87" s="3">
         <v>44011</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I87" s="2">
+        <v>20</v>
+      </c>
+      <c r="H87" s="2">
         <v>27.85</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:8">
       <c r="A88" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E88" s="3">
         <v>44011</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I88" s="2">
+        <v>13</v>
+      </c>
+      <c r="H88" s="2">
         <v>27.91</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:8">
       <c r="A89" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E89" s="3">
         <v>44011</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I89" s="2">
+        <v>67</v>
+      </c>
+      <c r="H89" s="2">
         <v>35.57</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:8">
       <c r="A90" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E90" s="3">
         <v>44011</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I90" s="2">
+        <v>20</v>
+      </c>
+      <c r="H90" s="2">
         <v>651.74</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E91" s="3">
         <v>44011</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I91" s="2">
+        <v>13</v>
+      </c>
+      <c r="H91" s="2">
         <v>653.08</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E92" s="3">
         <v>44011</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I92" s="2">
+        <v>67</v>
+      </c>
+      <c r="H92" s="2">
         <v>832.07</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E93" s="3">
         <v>44011</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I93" s="2">
+        <v>20</v>
+      </c>
+      <c r="H93" s="2">
         <v>27.85</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E94" s="3">
         <v>44011</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I94" s="2">
+        <v>13</v>
+      </c>
+      <c r="H94" s="2">
         <v>27.91</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E95" s="3">
         <v>44011</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I95" s="2">
+        <v>67</v>
+      </c>
+      <c r="H95" s="2">
         <v>35.57</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E96" s="3">
         <v>43951</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I96" s="2">
+        <v>13</v>
+      </c>
+      <c r="H96" s="2">
         <v>18.68</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="D97" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E97" s="3">
         <v>43951</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I97" s="2">
+        <v>13</v>
+      </c>
+      <c r="H97" s="2">
         <v>431.14</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E98" s="3">
         <v>43951</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I98" s="2">
+        <v>20</v>
+      </c>
+      <c r="H98" s="2">
         <v>22.05</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:8">
       <c r="A99" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E99" s="3">
         <v>43951</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I99" s="2">
+        <v>20</v>
+      </c>
+      <c r="H99" s="2">
         <v>508.88</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:8">
       <c r="A100" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E100" s="3">
         <v>43951</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I100" s="2">
+        <v>67</v>
+      </c>
+      <c r="H100" s="2">
         <v>24.41</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:8">
       <c r="A101" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E101" s="3">
         <v>43951</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I101" s="2">
+        <v>67</v>
+      </c>
+      <c r="H101" s="2">
         <v>563.67</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:8">
       <c r="A102" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E102" s="3">
         <v>43915</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I102" s="2">
+        <v>20</v>
+      </c>
+      <c r="H102" s="2">
         <v>22.77</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:8">
       <c r="A103" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D103" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E103" s="3">
         <v>43915</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I103" s="2">
+        <v>20</v>
+      </c>
+      <c r="H103" s="2">
         <v>561.86</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:8">
       <c r="A104" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E104" s="3">
         <v>43915</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I104" s="2">
+        <v>13</v>
+      </c>
+      <c r="H104" s="2">
         <v>19.29</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:8">
       <c r="A105" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E105" s="3">
         <v>43915</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I105" s="2">
+        <v>13</v>
+      </c>
+      <c r="H105" s="2">
         <v>476.02</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:8">
       <c r="A106" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E106" s="3">
         <v>43915</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I106" s="2">
+        <v>67</v>
+      </c>
+      <c r="H106" s="2">
         <v>622.33</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:8">
       <c r="A107" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E107" s="3">
         <v>43915</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I107" s="2">
+        <v>67</v>
+      </c>
+      <c r="H107" s="2">
         <v>25.23</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:8">
       <c r="A108" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E108" s="3">
         <v>43951</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I108" s="2">
+        <v>13</v>
+      </c>
+      <c r="H108" s="2">
         <v>230.25</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:8">
       <c r="A109" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E109" s="3">
         <v>43951</v>
       </c>
       <c r="F109" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" s="2">
+        <v>9.89</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G109" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I109" s="2">
-        <v>9.89</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="D110" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E110" s="3">
         <v>43951</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I110" s="2">
+        <v>20</v>
+      </c>
+      <c r="H110" s="2">
         <v>489.29</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:8">
       <c r="A111" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E111" s="3">
         <v>43951</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I111" s="2">
+        <v>20</v>
+      </c>
+      <c r="H111" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:8">
       <c r="A112" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E112" s="3">
         <v>43915</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I112" s="2">
+        <v>20</v>
+      </c>
+      <c r="H112" s="2">
         <v>23.79</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:8">
       <c r="A113" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="D113" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E113" s="3">
         <v>43915</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I113" s="2">
+        <v>20</v>
+      </c>
+      <c r="H113" s="2">
         <v>589.07</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:8">
       <c r="A114" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E114" s="3">
         <v>43915</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I114" s="2">
+        <v>13</v>
+      </c>
+      <c r="H114" s="2">
         <v>11.2</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:8">
       <c r="A115" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E115" s="3">
         <v>43915</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I115" s="2">
+        <v>13</v>
+      </c>
+      <c r="H115" s="2">
         <v>277.21</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:8">
       <c r="A116" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E116" s="3">
         <v>43977</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I116" s="2">
+        <v>13</v>
+      </c>
+      <c r="H116" s="2">
         <v>468.09</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:8">
       <c r="A117" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E117" s="3">
         <v>43977</v>
       </c>
       <c r="F117" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H117" s="2">
+        <v>20.01</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G117" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I117" s="2">
-        <v>20.01</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="C118" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E118" s="3">
         <v>43921</v>
       </c>
       <c r="F118" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H118" s="2">
+        <v>18.9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G118" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I118" s="2">
-        <v>18.9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B119" s="2" t="s">
+      <c r="C119" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="D119" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E119" s="3">
         <v>43921</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I119" s="2">
+        <v>13</v>
+      </c>
+      <c r="H119" s="2">
         <v>453.97</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:8">
       <c r="A120" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E120" s="3">
         <v>43980</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I120" s="2">
+        <v>13</v>
+      </c>
+      <c r="H120" s="2">
         <v>438.02</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:8">
       <c r="A121" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E121" s="3">
         <v>43980</v>
       </c>
       <c r="F121" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H121" s="2">
+        <v>18.72</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G121" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I121" s="2">
-        <v>18.72</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="D122" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E122" s="3">
         <v>43980</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I122" s="2">
+        <v>20</v>
+      </c>
+      <c r="H122" s="2">
         <v>864.82</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:8">
       <c r="A123" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E123" s="3">
         <v>43980</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I123" s="2">
+        <v>20</v>
+      </c>
+      <c r="H123" s="2">
         <v>36.96</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:8">
       <c r="A124" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E124" s="3">
         <v>43903</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I124" s="2">
+        <v>20</v>
+      </c>
+      <c r="H124" s="2">
         <v>883.57</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:8">
       <c r="A125" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="D125" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E125" s="3">
         <v>43903</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I125" s="2">
+        <v>20</v>
+      </c>
+      <c r="H125" s="2">
         <v>35.69</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:8">
       <c r="A126" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E126" s="3">
         <v>43921</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I126" s="2">
+        <v>20</v>
+      </c>
+      <c r="H126" s="2">
         <v>881.87</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:8">
       <c r="A127" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D127" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E127" s="3">
         <v>43921</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I127" s="2">
+        <v>20</v>
+      </c>
+      <c r="H127" s="2">
         <v>36.66</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:8">
       <c r="A128" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E128" s="3">
         <v>43921</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I128" s="2">
+        <v>13</v>
+      </c>
+      <c r="H128" s="2">
         <v>446.66</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:8">
       <c r="A129" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E129" s="3">
         <v>43921</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I129" s="2">
+        <v>13</v>
+      </c>
+      <c r="H129" s="2">
         <v>18.57</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:8">
       <c r="A130" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E130" s="3">
         <v>43903</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I130" s="2">
+        <v>13</v>
+      </c>
+      <c r="H130" s="2">
         <v>447.6</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:8">
       <c r="A131" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E131" s="3">
         <v>43903</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I131" s="2">
+        <v>13</v>
+      </c>
+      <c r="H131" s="2">
         <v>18.08</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:8">
       <c r="A132" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E132" s="3">
         <v>44012</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I132" s="2">
+        <v>13</v>
+      </c>
+      <c r="H132" s="2">
         <v>1413.89</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:8">
       <c r="A133" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E133" s="3">
         <v>44012</v>
       </c>
       <c r="F133" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H133" s="2">
+        <v>60.43</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G133" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I133" s="2">
-        <v>60.43</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="D134" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E134" s="3">
         <v>44012</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I134" s="2">
+        <v>13</v>
+      </c>
+      <c r="H134" s="2">
         <v>1413.89</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:8">
       <c r="A135" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E135" s="3">
         <v>44012</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I135" s="2">
+        <v>13</v>
+      </c>
+      <c r="H135" s="2">
         <v>60.43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I135">
-    <sortState ref="A1:I135">
+  <autoFilter ref="A1:H135">
+    <sortState ref="A1:H135">
       <sortCondition ref="F1"/>
     </sortState>
     <extLst/>
